--- a/BoraTestEspaceVenteDDT/BoraTestEspaceVenteDDT/Bora Espace Vente Test Case.xlsx
+++ b/BoraTestEspaceVenteDDT/BoraTestEspaceVenteDDT/Bora Espace Vente Test Case.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="335">
   <si>
     <t>test case</t>
   </si>
@@ -794,6 +794,231 @@
   </si>
   <si>
     <t>Billet K5 1 enregistré  avec succès.</t>
+  </si>
+  <si>
+    <t>UC-EV002</t>
+  </si>
+  <si>
+    <t>Créer un booking Champs obligatoires non remplis</t>
+  </si>
+  <si>
+    <t>124;6</t>
+  </si>
+  <si>
+    <t>81;147</t>
+  </si>
+  <si>
+    <t>78;145</t>
+  </si>
+  <si>
+    <t>95;9</t>
+  </si>
+  <si>
+    <t>195;7</t>
+  </si>
+  <si>
+    <t>119;9</t>
+  </si>
+  <si>
+    <t>178;8</t>
+  </si>
+  <si>
+    <t>158;11</t>
+  </si>
+  <si>
+    <t>147;7</t>
+  </si>
+  <si>
+    <t>122;9</t>
+  </si>
+  <si>
+    <t>140;9</t>
+  </si>
+  <si>
+    <t>&lt;Date de Transaction&gt;</t>
+  </si>
+  <si>
+    <t>156;146</t>
+  </si>
+  <si>
+    <t>200;26</t>
+  </si>
+  <si>
+    <t>170;9</t>
+  </si>
+  <si>
+    <t>116;146</t>
+  </si>
+  <si>
+    <t>75;26</t>
+  </si>
+  <si>
+    <t>Message de validation 1</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner le Produit.</t>
+  </si>
+  <si>
+    <t>Message de validation 2</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner le Fournisseur.</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner le Type de Document.</t>
+  </si>
+  <si>
+    <t>Message de validation 3</t>
+  </si>
+  <si>
+    <t>Message de validation 4</t>
+  </si>
+  <si>
+    <t>Veuillez saisir la Date de Transaction.</t>
+  </si>
+  <si>
+    <t>Message de validation 5</t>
+  </si>
+  <si>
+    <t>Veuillez renseigner le Nom du Voyageur.</t>
+  </si>
+  <si>
+    <t>Message de validation 6</t>
+  </si>
+  <si>
+    <t>Veuillez renseigner la Classe de Réservation.</t>
+  </si>
+  <si>
+    <t>Message de validation 7</t>
+  </si>
+  <si>
+    <t>Veuille saisir la Date Départ.</t>
+  </si>
+  <si>
+    <t>Message de validation 8</t>
+  </si>
+  <si>
+    <t>Veuille saisir la Date Retour.</t>
+  </si>
+  <si>
+    <t>Message de validation 9</t>
+  </si>
+  <si>
+    <t>Veuillez saisir le Numéro du Billet .</t>
+  </si>
+  <si>
+    <t>Message de validation 10</t>
+  </si>
+  <si>
+    <t>Veuillez saisir l'Itinéraire.</t>
+  </si>
+  <si>
+    <t>Message de validation 11</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner la Destination.</t>
+  </si>
+  <si>
+    <t>Message de validation 12</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner le Ticketing Agent.</t>
+  </si>
+  <si>
+    <t>Ajout impossible: le Net à facturer est différent du cumul CASH + CHEQUE + NONREF.</t>
+  </si>
+  <si>
+    <t>Message de validation 13</t>
+  </si>
+  <si>
+    <t>val111</t>
+  </si>
+  <si>
+    <t>val112</t>
+  </si>
+  <si>
+    <t>val113</t>
+  </si>
+  <si>
+    <t>val114</t>
+  </si>
+  <si>
+    <t>val115</t>
+  </si>
+  <si>
+    <t>val116</t>
+  </si>
+  <si>
+    <t>val117</t>
+  </si>
+  <si>
+    <t>val118</t>
+  </si>
+  <si>
+    <t>val119</t>
+  </si>
+  <si>
+    <t>val120</t>
+  </si>
+  <si>
+    <t>val121</t>
+  </si>
+  <si>
+    <t>val122</t>
+  </si>
+  <si>
+    <t>val123</t>
+  </si>
+  <si>
+    <t>val124</t>
+  </si>
+  <si>
+    <t>val125</t>
+  </si>
+  <si>
+    <t>val126</t>
+  </si>
+  <si>
+    <t>val127</t>
+  </si>
+  <si>
+    <t>réponse 1</t>
+  </si>
+  <si>
+    <t>réponse 2</t>
+  </si>
+  <si>
+    <t>réponse 3</t>
+  </si>
+  <si>
+    <t>réponse 4</t>
+  </si>
+  <si>
+    <t>réponse 5</t>
+  </si>
+  <si>
+    <t>réponse 6</t>
+  </si>
+  <si>
+    <t>réponse 7</t>
+  </si>
+  <si>
+    <t>réponse 8</t>
+  </si>
+  <si>
+    <t>réponse 9</t>
+  </si>
+  <si>
+    <t>réponse 10</t>
+  </si>
+  <si>
+    <t>réponse 11</t>
+  </si>
+  <si>
+    <t>réponse 12</t>
+  </si>
+  <si>
+    <t>réponse 13</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1190,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1286,23 +1531,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DH5"/>
+  <dimension ref="A1:DY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CV1" workbookViewId="0">
-      <selection activeCell="DC5" sqref="DC5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -1311,32 +1555,35 @@
     <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="49" max="53" width="13" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1348,46 +1595,70 @@
     <col min="60" max="60" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="8" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="98" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="9" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="95" width="13" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="15" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="15" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="19" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="13" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="110" max="111" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="30" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="34" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="38" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="123" max="124" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="77.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1724,8 +1995,59 @@
       <c r="DH1" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="DI1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>321</v>
+      </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
@@ -1840,8 +2162,25 @@
       <c r="DF2" s="2"/>
       <c r="DG2" s="2"/>
       <c r="DH2" s="2"/>
+      <c r="DI2" s="2"/>
+      <c r="DJ2" s="2"/>
+      <c r="DK2" s="2"/>
+      <c r="DL2" s="2"/>
+      <c r="DM2" s="2"/>
+      <c r="DN2" s="2"/>
+      <c r="DO2" s="2"/>
+      <c r="DP2" s="2"/>
+      <c r="DQ2" s="2"/>
+      <c r="DR2" s="2"/>
+      <c r="DS2" s="2"/>
+      <c r="DT2" s="2"/>
+      <c r="DU2" s="2"/>
+      <c r="DV2" s="2"/>
+      <c r="DW2" s="2"/>
+      <c r="DX2" s="2"/>
+      <c r="DY2" s="2"/>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -1956,8 +2295,25 @@
       <c r="DF3" s="4"/>
       <c r="DG3" s="4"/>
       <c r="DH3" s="4"/>
+      <c r="DI3" s="4"/>
+      <c r="DJ3" s="4"/>
+      <c r="DK3" s="4"/>
+      <c r="DL3" s="4"/>
+      <c r="DM3" s="4"/>
+      <c r="DN3" s="4"/>
+      <c r="DO3" s="4"/>
+      <c r="DP3" s="4"/>
+      <c r="DQ3" s="4"/>
+      <c r="DR3" s="4"/>
+      <c r="DS3" s="4"/>
+      <c r="DT3" s="4"/>
+      <c r="DU3" s="4"/>
+      <c r="DV3" s="4"/>
+      <c r="DW3" s="4"/>
+      <c r="DX3" s="4"/>
+      <c r="DY3" s="4"/>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2278,7 +2634,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:129" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
@@ -2599,8 +2955,901 @@
         <v>259</v>
       </c>
     </row>
+    <row r="6" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+      <c r="BR6" s="4"/>
+      <c r="BS6" s="4"/>
+      <c r="BT6" s="4"/>
+      <c r="BU6" s="4"/>
+      <c r="BV6" s="4"/>
+      <c r="BW6" s="4"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="4"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
+      <c r="CC6" s="4"/>
+      <c r="CD6" s="4"/>
+      <c r="CE6" s="4"/>
+      <c r="CF6" s="4"/>
+      <c r="CG6" s="4"/>
+      <c r="CH6" s="4"/>
+      <c r="CI6" s="4"/>
+      <c r="CJ6" s="4"/>
+      <c r="CK6" s="4"/>
+      <c r="CL6" s="4"/>
+      <c r="CM6" s="4"/>
+      <c r="CN6" s="4"/>
+      <c r="CO6" s="4"/>
+      <c r="CP6" s="4"/>
+      <c r="CQ6" s="4"/>
+      <c r="CR6" s="4"/>
+      <c r="CS6" s="4"/>
+      <c r="CT6" s="4"/>
+      <c r="CU6" s="4"/>
+      <c r="CV6" s="4"/>
+      <c r="CW6" s="4"/>
+      <c r="CX6" s="4"/>
+      <c r="CY6" s="4"/>
+      <c r="CZ6" s="4"/>
+      <c r="DA6" s="4"/>
+      <c r="DB6" s="4"/>
+      <c r="DC6" s="4"/>
+      <c r="DD6" s="4"/>
+      <c r="DE6" s="4"/>
+      <c r="DF6" s="4"/>
+      <c r="DG6" s="4"/>
+      <c r="DH6" s="4"/>
+      <c r="DI6" s="4"/>
+      <c r="DJ6" s="4"/>
+      <c r="DK6" s="4"/>
+      <c r="DL6" s="4"/>
+      <c r="DM6" s="4"/>
+      <c r="DN6" s="4"/>
+      <c r="DO6" s="4"/>
+      <c r="DP6" s="4"/>
+      <c r="DQ6" s="4"/>
+      <c r="DR6" s="4"/>
+      <c r="DS6" s="4"/>
+      <c r="DT6" s="4"/>
+      <c r="DU6" s="4"/>
+      <c r="DV6" s="4"/>
+      <c r="DW6" s="4"/>
+      <c r="DX6" s="4"/>
+      <c r="DY6" s="4"/>
+    </row>
+    <row r="7" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="BB7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BC7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BD7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BE7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="BF7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="BG7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="BH7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="BI7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="BJ7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="BK7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BL7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="BR7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BU7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BV7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BY7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="CA7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="CC7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="CF7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="CG7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="CH7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="CI7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="CJ7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CK7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="CM7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="CN7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="CO7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="CP7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="CQ7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="CR7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="CS7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CT7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="CU7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="CW7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="CX7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="CY7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="CZ7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="DA7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="DB7" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="DC7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="DD7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="DE7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="DF7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="DG7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="DH7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="DI7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="DJ7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="DK7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="DL7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="DM7" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="DN7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="DO7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="DP7" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="DQ7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="DR7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="DS7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="DT7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="DU7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="DV7" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="DW7" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="DX7" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="DY7" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:129" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="U8" s="10">
+        <v>1</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>1200</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AT8" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU8" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV8" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW8" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="AX8" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AY8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="BJ8" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="BK8" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL8" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="BM8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="BN8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="CC8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CH8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CI8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CJ8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CK8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CL8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CM8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CN8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CO8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CP8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CQ8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CR8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CS8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CT8" s="10">
+        <v>2</v>
+      </c>
+      <c r="CU8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CV8" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="CW8" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="CX8" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="CY8" s="10">
+        <v>1</v>
+      </c>
+      <c r="CZ8" s="10">
+        <v>2</v>
+      </c>
+      <c r="DA8" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="DB8" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="DC8" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="DD8" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="DE8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="DF8" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="DG8" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="DH8" s="10">
+        <v>1</v>
+      </c>
+      <c r="DI8" s="10">
+        <v>1</v>
+      </c>
+      <c r="DJ8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="DK8" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="DL8" s="10">
+        <v>3.78</v>
+      </c>
+      <c r="DM8" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="DN8" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="DO8" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="DP8" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="DQ8" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="DR8" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="DS8" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="DT8" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="DU8" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="DV8" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="DW8" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="DX8" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="DY8" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"not ok"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:N8">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
